--- a/data/AMINOBI.xlsx
+++ b/data/AMINOBI.xlsx
@@ -482,7 +482,7 @@
         <v>0.5</v>
       </c>
       <c r="K2">
-        <v>4144</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="3">
@@ -623,7 +623,7 @@
         <v>0.5</v>
       </c>
       <c r="K6">
-        <v>3924</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="7">
